--- a/CVX.xlsx
+++ b/CVX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C07C1DE-0532-4B1F-A4C6-B1573B0D43BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98DFE94-2DAE-4894-B2C6-8D66CEB78AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{DE22802E-4E39-41A4-8F8C-B16A5E41F415}"/>
+    <workbookView xWindow="7140" yWindow="1050" windowWidth="20745" windowHeight="13455" activeTab="1" xr2:uid="{DE22802E-4E39-41A4-8F8C-B16A5E41F415}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -208,8 +208,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -678,7 +676,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,43 +1412,43 @@
         <v>-594</v>
       </c>
       <c r="E14" s="2">
-        <f>D34*$Q$20</f>
+        <f t="shared" ref="E14:N14" si="56">D34*$Q$20</f>
         <v>-1949.22</v>
       </c>
       <c r="F14" s="2">
-        <f>E34*$Q$20</f>
+        <f t="shared" si="56"/>
         <v>-1216.1973017999997</v>
       </c>
       <c r="G14" s="2">
-        <f>F34*$Q$20</f>
+        <f t="shared" si="56"/>
         <v>-430.31545002419983</v>
       </c>
       <c r="H14" s="2">
-        <f>G34*$Q$20</f>
+        <f t="shared" si="56"/>
         <v>411.21520036723632</v>
       </c>
       <c r="I14" s="2">
-        <f>H34*$Q$20</f>
+        <f t="shared" si="56"/>
         <v>1311.3149347122101</v>
       </c>
       <c r="J14" s="2">
-        <f>I34*$Q$20</f>
+        <f t="shared" si="56"/>
         <v>2273.0404289425569</v>
       </c>
       <c r="K14" s="2">
-        <f>J34*$Q$20</f>
+        <f t="shared" si="56"/>
         <v>3299.5907438011845</v>
       </c>
       <c r="L14" s="2">
-        <f>K34*$Q$20</f>
+        <f t="shared" si="56"/>
         <v>4394.3135730831937</v>
       </c>
       <c r="M14" s="2">
-        <f>L34*$Q$20</f>
+        <f t="shared" si="56"/>
         <v>5560.7117564154159</v>
       </c>
       <c r="N14" s="2">
-        <f>M34*$Q$20</f>
+        <f t="shared" si="56"/>
         <v>6802.450067517053</v>
       </c>
     </row>
@@ -1463,51 +1461,51 @@
         <v>39434</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:I15" si="56">C13+C14</f>
+        <f t="shared" ref="C15:I15" si="57">C13+C14</f>
         <v>25760</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>18323</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>18795.45380000001</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>20150.816712199994</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>21577.708984395798</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>23079.480367819837</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>24659.628057188391</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" ref="J15" si="57">J13+J14</f>
+        <f t="shared" ref="J15" si="58">J13+J14</f>
         <v>26321.802945093012</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" ref="K15" si="58">K13+K14</f>
+        <f t="shared" ref="K15" si="59">K13+K14</f>
         <v>28069.816135436144</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" ref="L15" si="59">L13+L14</f>
+        <f t="shared" ref="L15" si="60">L13+L14</f>
         <v>29907.645726467214</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" ref="M15" si="60">M13+M14</f>
+        <f t="shared" ref="M15" si="61">M13+M14</f>
         <v>31839.443874400953</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" ref="N15" si="61">N13+N14</f>
+        <f t="shared" ref="N15" si="62">N13+N14</f>
         <v>33869.544149042165</v>
       </c>
     </row>
@@ -1529,39 +1527,39 @@
         <v>6578.408830000003</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ref="F16:I16" si="62">F22*F15</f>
+        <f t="shared" ref="F16:I16" si="63">F22*F15</f>
         <v>7052.7858492699979</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>7552.198144538529</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>8077.8181287369425</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>8630.8698200159361</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" ref="J16" si="63">J22*J15</f>
+        <f t="shared" ref="J16" si="64">J22*J15</f>
         <v>9212.6310307825534</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" ref="K16" si="64">K22*K15</f>
+        <f t="shared" ref="K16" si="65">K22*K15</f>
         <v>9824.4356474026499</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" ref="L16" si="65">L22*L15</f>
+        <f t="shared" ref="L16" si="66">L22*L15</f>
         <v>10467.676004263523</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" ref="M16" si="66">M22*M15</f>
+        <f t="shared" ref="M16" si="67">M22*M15</f>
         <v>11143.805356040333</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" ref="N16" si="67">N22*N15</f>
+        <f t="shared" ref="N16" si="68">N22*N15</f>
         <v>11854.340452164757</v>
       </c>
     </row>
@@ -1574,355 +1572,355 @@
         <v>25368</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:I17" si="68">C15-C16</f>
+        <f t="shared" ref="C17:I17" si="69">C15-C16</f>
         <v>17587</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>8566</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>12217.044970000006</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>13098.030862929996</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>14025.51083985727</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>15001.662239082894</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>16028.758237172455</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" ref="J17" si="69">J15-J16</f>
+        <f t="shared" ref="J17" si="70">J15-J16</f>
         <v>17109.171914310456</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" ref="K17" si="70">K15-K16</f>
+        <f t="shared" ref="K17" si="71">K15-K16</f>
         <v>18245.380488033494</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" ref="L17" si="71">L15-L16</f>
+        <f t="shared" ref="L17" si="72">L15-L16</f>
         <v>19439.969722203692</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" ref="M17" si="72">M15-M16</f>
+        <f t="shared" ref="M17" si="73">M15-M16</f>
         <v>20695.638518360618</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" ref="N17" si="73">N15-N16</f>
+        <f t="shared" ref="N17" si="74">N15-N16</f>
         <v>22015.203696877408</v>
       </c>
       <c r="O17" s="3">
-        <f>N17*(1+$Q$21)</f>
+        <f t="shared" ref="O17:AT17" si="75">N17*(1+$Q$21)</f>
         <v>22235.355733846183</v>
       </c>
       <c r="P17" s="3">
-        <f>O17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>22457.709291184645</v>
       </c>
       <c r="Q17" s="3">
-        <f>P17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>22682.286384096493</v>
       </c>
       <c r="R17" s="3">
-        <f>Q17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>22909.109247937457</v>
       </c>
       <c r="S17" s="3">
-        <f>R17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>23138.200340416832</v>
       </c>
       <c r="T17" s="3">
-        <f>S17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>23369.582343820999</v>
       </c>
       <c r="U17" s="3">
-        <f>T17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>23603.27816725921</v>
       </c>
       <c r="V17" s="3">
-        <f>U17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>23839.310948931801</v>
       </c>
       <c r="W17" s="3">
-        <f>V17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>24077.704058421121</v>
       </c>
       <c r="X17" s="3">
-        <f>W17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>24318.481099005334</v>
       </c>
       <c r="Y17" s="3">
-        <f>X17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>24561.665909995387</v>
       </c>
       <c r="Z17" s="3">
-        <f>Y17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>24807.28256909534</v>
       </c>
       <c r="AA17" s="3">
-        <f>Z17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>25055.355394786293</v>
       </c>
       <c r="AB17" s="3">
-        <f>AA17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>25305.908948734155</v>
       </c>
       <c r="AC17" s="3">
-        <f>AB17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>25558.968038221497</v>
       </c>
       <c r="AD17" s="3">
-        <f>AC17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>25814.557718603712</v>
       </c>
       <c r="AE17" s="3">
-        <f>AD17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>26072.70329578975</v>
       </c>
       <c r="AF17" s="3">
-        <f>AE17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>26333.430328747647</v>
       </c>
       <c r="AG17" s="3">
-        <f>AF17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>26596.764632035123</v>
       </c>
       <c r="AH17" s="3">
-        <f>AG17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>26862.732278355474</v>
       </c>
       <c r="AI17" s="3">
-        <f>AH17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>27131.359601139029</v>
       </c>
       <c r="AJ17" s="3">
-        <f>AI17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>27402.67319715042</v>
       </c>
       <c r="AK17" s="3">
-        <f>AJ17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>27676.699929121925</v>
       </c>
       <c r="AL17" s="3">
-        <f>AK17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>27953.466928413145</v>
       </c>
       <c r="AM17" s="3">
-        <f>AL17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>28233.001597697275</v>
       </c>
       <c r="AN17" s="3">
-        <f>AM17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>28515.331613674247</v>
       </c>
       <c r="AO17" s="3">
-        <f>AN17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>28800.484929810991</v>
       </c>
       <c r="AP17" s="3">
-        <f>AO17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>29088.489779109103</v>
       </c>
       <c r="AQ17" s="3">
-        <f>AP17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>29379.374676900195</v>
       </c>
       <c r="AR17" s="3">
-        <f>AQ17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>29673.168423669198</v>
       </c>
       <c r="AS17" s="3">
-        <f>AR17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>29969.900107905891</v>
       </c>
       <c r="AT17" s="3">
-        <f>AS17*(1+$Q$21)</f>
+        <f t="shared" si="75"/>
         <v>30269.599108984949</v>
       </c>
       <c r="AU17" s="3">
-        <f>AT17*(1+$Q$21)</f>
+        <f t="shared" ref="AU17:BZ17" si="76">AT17*(1+$Q$21)</f>
         <v>30572.2951000748</v>
       </c>
       <c r="AV17" s="3">
-        <f>AU17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>30878.018051075549</v>
       </c>
       <c r="AW17" s="3">
-        <f>AV17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>31186.798231586305</v>
       </c>
       <c r="AX17" s="3">
-        <f>AW17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>31498.666213902168</v>
       </c>
       <c r="AY17" s="3">
-        <f>AX17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>31813.652876041189</v>
       </c>
       <c r="AZ17" s="3">
-        <f>AY17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>32131.789404801602</v>
       </c>
       <c r="BA17" s="3">
-        <f>AZ17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>32453.10729884962</v>
       </c>
       <c r="BB17" s="3">
-        <f>BA17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>32777.638371838118</v>
       </c>
       <c r="BC17" s="3">
-        <f>BB17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>33105.4147555565</v>
       </c>
       <c r="BD17" s="3">
-        <f>BC17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>33436.468903112065</v>
       </c>
       <c r="BE17" s="3">
-        <f>BD17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>33770.833592143186</v>
       </c>
       <c r="BF17" s="3">
-        <f>BE17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>34108.541928064617</v>
       </c>
       <c r="BG17" s="3">
-        <f>BF17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>34449.62734734526</v>
       </c>
       <c r="BH17" s="3">
-        <f>BG17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>34794.123620818711</v>
       </c>
       <c r="BI17" s="3">
-        <f>BH17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>35142.064857026897</v>
       </c>
       <c r="BJ17" s="3">
-        <f>BI17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>35493.485505597164</v>
       </c>
       <c r="BK17" s="3">
-        <f>BJ17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>35848.420360653137</v>
       </c>
       <c r="BL17" s="3">
-        <f>BK17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>36206.904564259668</v>
       </c>
       <c r="BM17" s="3">
-        <f>BL17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>36568.973609902263</v>
       </c>
       <c r="BN17" s="3">
-        <f>BM17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>36934.663346001289</v>
       </c>
       <c r="BO17" s="3">
-        <f>BN17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>37304.009979461305</v>
       </c>
       <c r="BP17" s="3">
-        <f>BO17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>37677.050079255918</v>
       </c>
       <c r="BQ17" s="3">
-        <f>BP17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>38053.820580048479</v>
       </c>
       <c r="BR17" s="3">
-        <f>BQ17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>38434.358785848963</v>
       </c>
       <c r="BS17" s="3">
-        <f>BR17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>38818.702373707456</v>
       </c>
       <c r="BT17" s="3">
-        <f>BS17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>39206.889397444531</v>
       </c>
       <c r="BU17" s="3">
-        <f>BT17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>39598.958291418974</v>
       </c>
       <c r="BV17" s="3">
-        <f>BU17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>39994.947874333164</v>
       </c>
       <c r="BW17" s="3">
-        <f>BV17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>40394.897353076492</v>
       </c>
       <c r="BX17" s="3">
-        <f>BW17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>40798.846326607258</v>
       </c>
       <c r="BY17" s="3">
-        <f>BX17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>41206.834789873334</v>
       </c>
       <c r="BZ17" s="3">
-        <f>BY17*(1+$Q$21)</f>
+        <f t="shared" si="76"/>
         <v>41618.903137772068</v>
       </c>
       <c r="CA17" s="3">
-        <f>BZ17*(1+$Q$21)</f>
+        <f t="shared" ref="CA17:CL17" si="77">BZ17*(1+$Q$21)</f>
         <v>42035.092169149786</v>
       </c>
       <c r="CB17" s="3">
-        <f>CA17*(1+$Q$21)</f>
+        <f t="shared" si="77"/>
         <v>42455.443090841283</v>
       </c>
       <c r="CC17" s="3">
-        <f>CB17*(1+$Q$21)</f>
+        <f t="shared" si="77"/>
         <v>42879.997521749698</v>
       </c>
       <c r="CD17" s="3">
-        <f>CC17*(1+$Q$21)</f>
+        <f t="shared" si="77"/>
         <v>43308.797496967192</v>
       </c>
       <c r="CE17" s="3">
-        <f>CD17*(1+$Q$21)</f>
+        <f t="shared" si="77"/>
         <v>43741.885471936861</v>
       </c>
       <c r="CF17" s="3">
-        <f>CE17*(1+$Q$21)</f>
+        <f t="shared" si="77"/>
         <v>44179.304326656231</v>
       </c>
       <c r="CG17" s="3">
-        <f>CF17*(1+$Q$21)</f>
+        <f t="shared" si="77"/>
         <v>44621.097369922791</v>
       </c>
       <c r="CH17" s="3">
-        <f>CG17*(1+$Q$21)</f>
+        <f t="shared" si="77"/>
         <v>45067.308343622019</v>
       </c>
       <c r="CI17" s="3">
-        <f>CH17*(1+$Q$21)</f>
+        <f t="shared" si="77"/>
         <v>45517.981427058236</v>
       </c>
       <c r="CJ17" s="3">
-        <f>CI17*(1+$Q$21)</f>
+        <f t="shared" si="77"/>
         <v>45973.161241328817</v>
       </c>
       <c r="CK17" s="3">
-        <f>CJ17*(1+$Q$21)</f>
+        <f t="shared" si="77"/>
         <v>46432.892853742109</v>
       </c>
       <c r="CL17" s="3">
-        <f>CK17*(1+$Q$21)</f>
+        <f t="shared" si="77"/>
         <v>46897.221782279528</v>
       </c>
     </row>
@@ -1957,43 +1955,43 @@
         <v>-1.7769268661794846E-2</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" ref="E21:I21" si="74">E2/D2-1</f>
+        <f t="shared" ref="E21:I21" si="78">E2/D2-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" ref="J21:N21" si="75">J2/I2-1</f>
+        <f t="shared" ref="J21:N21" si="79">J2/I2-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="P21" s="2" t="s">
@@ -2012,11 +2010,11 @@
         <v>0.35669726631840543</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" ref="C22:D22" si="76">C16/C15</f>
+        <f t="shared" ref="C22:D22" si="80">C16/C15</f>
         <v>0.31727484472049688</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.53250013644053917</v>
       </c>
       <c r="E22" s="5">
@@ -2052,17 +2050,17 @@
       <c r="P22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="23" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="Q23" s="3">
         <f>NPV(Q22,E32:XFD32)+Sheet1!D5-Sheet1!D6</f>
-        <v>325238.47986604017</v>
+        <v>285331.3573504446</v>
       </c>
     </row>
     <row r="24" spans="1:100" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2074,11 +2072,11 @@
         <v>0.38309074016723443</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" ref="C24:D24" si="77">C6/C2</f>
+        <f t="shared" ref="C24:D24" si="81">C6/C2</f>
         <v>0.39467683697876726</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>0.38367439792362495</v>
       </c>
       <c r="E24" s="6">
@@ -2116,22 +2114,22 @@
       </c>
       <c r="Q24" s="2">
         <f>Q23/Sheet1!D3</f>
-        <v>184.7316141463366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:100" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+        <v>162.06484002637998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="P25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="Q25" s="5">
         <f>Q24/Sheet1!D2-1</f>
-        <v>0.39420086148178557</v>
+        <v>0.22313086812362259</v>
       </c>
     </row>
     <row r="26" spans="1:100" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2156,52 +2154,52 @@
         <v>0.15402248037265351</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" ref="C28:D28" si="78">C32/C4</f>
+        <f t="shared" ref="C28:D28" si="82">C32/C4</f>
         <v>9.7899467442735241E-2</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>7.5975960810060097E-2</v>
       </c>
       <c r="E28" s="5">
-        <f>D28*1.035</f>
-        <v>7.8635119438412199E-2</v>
+        <f>D28*1.02</f>
+        <v>7.7495480026261304E-2</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" ref="F28:N28" si="79">E28*1.035</f>
-        <v>8.1387348618756614E-2</v>
+        <f t="shared" ref="F28:N28" si="83">E28*1.02</f>
+        <v>7.9045389626786533E-2</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="79"/>
-        <v>8.4235905820413084E-2</v>
+        <f t="shared" si="83"/>
+        <v>8.0626297419322271E-2</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="79"/>
-        <v>8.7184162524127543E-2</v>
+        <f t="shared" si="83"/>
+        <v>8.2238823367708713E-2</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="79"/>
-        <v>9.0235608212471993E-2</v>
+        <f t="shared" si="83"/>
+        <v>8.3883599835062883E-2</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="79"/>
-        <v>9.3393854499908502E-2</v>
+        <f t="shared" si="83"/>
+        <v>8.5561271831764138E-2</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="79"/>
-        <v>9.6662639407405299E-2</v>
+        <f t="shared" si="83"/>
+        <v>8.7272497268399418E-2</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="79"/>
-        <v>0.10004583178666447</v>
+        <f t="shared" si="83"/>
+        <v>8.9017947213767407E-2</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="79"/>
-        <v>0.10354743589919772</v>
+        <f t="shared" si="83"/>
+        <v>9.0798306158042755E-2</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="79"/>
-        <v>0.10717159615566964</v>
+        <f t="shared" si="83"/>
+        <v>9.2614272281203613E-2</v>
       </c>
     </row>
     <row r="30" spans="1:100" x14ac:dyDescent="0.25">
@@ -2241,396 +2239,396 @@
         <v>37628</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" ref="C32:D32" si="80">C30-C31</f>
+        <f t="shared" ref="C32:D32" si="84">C30-C31</f>
         <v>19780</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>15044</v>
       </c>
       <c r="E32" s="3">
         <f>E28*E4</f>
-        <v>16037.656200000001</v>
+        <v>15805.226400000001</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" ref="F32:I32" si="81">F28*F4</f>
-        <v>17096.943392009998</v>
+        <f t="shared" ref="F32:I32" si="85">F28*F4</f>
+        <v>16604.970855840002</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="81"/>
-        <v>18226.196503052255</v>
+        <f t="shared" si="85"/>
+        <v>17445.182381145507</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="81"/>
-        <v>19430.03678207886</v>
+        <f t="shared" si="85"/>
+        <v>18327.908609631471</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="81"/>
-        <v>20713.390711535165</v>
+        <f t="shared" si="85"/>
+        <v>19255.300785278821</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" ref="J32:N32" si="82">J28*J4</f>
-        <v>22081.510168032059</v>
+        <f t="shared" ref="J32:N32" si="86">J28*J4</f>
+        <v>20229.61900501393</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="82"/>
-        <v>23539.993914630577</v>
+        <f t="shared" si="86"/>
+        <v>21253.237726667638</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="82"/>
-        <v>25094.810512691922</v>
+        <f t="shared" si="86"/>
+        <v>22328.651555637018</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="82"/>
-        <v>26752.322747055223</v>
+        <f t="shared" si="86"/>
+        <v>23458.481324352251</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="82"/>
-        <v>28519.313664498219</v>
+        <f t="shared" si="86"/>
+        <v>24645.480479364473</v>
       </c>
       <c r="O32" s="3">
-        <f>N32*(1+$Q$21)</f>
-        <v>28804.506801143201</v>
+        <f t="shared" ref="O32:AT32" si="87">N32*(1+$Q$21)</f>
+        <v>24891.935284158117</v>
       </c>
       <c r="P32" s="3">
-        <f>O32*(1+$Q$21)</f>
-        <v>29092.551869154635</v>
+        <f t="shared" si="87"/>
+        <v>25140.854636999698</v>
       </c>
       <c r="Q32" s="3">
-        <f>P32*(1+$Q$21)</f>
-        <v>29383.477387846182</v>
+        <f t="shared" si="87"/>
+        <v>25392.263183369694</v>
       </c>
       <c r="R32" s="3">
-        <f>Q32*(1+$Q$21)</f>
-        <v>29677.312161724643</v>
+        <f t="shared" si="87"/>
+        <v>25646.185815203393</v>
       </c>
       <c r="S32" s="3">
-        <f>R32*(1+$Q$21)</f>
-        <v>29974.08528334189</v>
+        <f t="shared" si="87"/>
+        <v>25902.647673355426</v>
       </c>
       <c r="T32" s="3">
-        <f>S32*(1+$Q$21)</f>
-        <v>30273.82613617531</v>
+        <f t="shared" si="87"/>
+        <v>26161.67415008898</v>
       </c>
       <c r="U32" s="3">
-        <f>T32*(1+$Q$21)</f>
-        <v>30576.564397537062</v>
+        <f t="shared" si="87"/>
+        <v>26423.29089158987</v>
       </c>
       <c r="V32" s="3">
-        <f>U32*(1+$Q$21)</f>
-        <v>30882.330041512432</v>
+        <f t="shared" si="87"/>
+        <v>26687.523800505769</v>
       </c>
       <c r="W32" s="3">
-        <f>V32*(1+$Q$21)</f>
-        <v>31191.153341927558</v>
+        <f t="shared" si="87"/>
+        <v>26954.399038510826</v>
       </c>
       <c r="X32" s="3">
-        <f>W32*(1+$Q$21)</f>
-        <v>31503.064875346834</v>
+        <f t="shared" si="87"/>
+        <v>27223.943028895934</v>
       </c>
       <c r="Y32" s="3">
-        <f>X32*(1+$Q$21)</f>
-        <v>31818.095524100303</v>
+        <f t="shared" si="87"/>
+        <v>27496.182459184893</v>
       </c>
       <c r="Z32" s="3">
-        <f>Y32*(1+$Q$21)</f>
-        <v>32136.276479341308</v>
+        <f t="shared" si="87"/>
+        <v>27771.144283776743</v>
       </c>
       <c r="AA32" s="3">
-        <f>Z32*(1+$Q$21)</f>
-        <v>32457.63924413472</v>
+        <f t="shared" si="87"/>
+        <v>28048.855726614511</v>
       </c>
       <c r="AB32" s="3">
-        <f>AA32*(1+$Q$21)</f>
-        <v>32782.215636576067</v>
+        <f t="shared" si="87"/>
+        <v>28329.344283880655</v>
       </c>
       <c r="AC32" s="3">
-        <f>AB32*(1+$Q$21)</f>
-        <v>33110.037792941832</v>
+        <f t="shared" si="87"/>
+        <v>28612.637726719462</v>
       </c>
       <c r="AD32" s="3">
-        <f>AC32*(1+$Q$21)</f>
-        <v>33441.138170871251</v>
+        <f t="shared" si="87"/>
+        <v>28898.764103986658</v>
       </c>
       <c r="AE32" s="3">
-        <f>AD32*(1+$Q$21)</f>
-        <v>33775.549552579963</v>
+        <f t="shared" si="87"/>
+        <v>29187.751745026526</v>
       </c>
       <c r="AF32" s="3">
-        <f>AE32*(1+$Q$21)</f>
-        <v>34113.305048105765</v>
+        <f t="shared" si="87"/>
+        <v>29479.629262476792</v>
       </c>
       <c r="AG32" s="3">
-        <f>AF32*(1+$Q$21)</f>
-        <v>34454.438098586827</v>
+        <f t="shared" si="87"/>
+        <v>29774.425555101559</v>
       </c>
       <c r="AH32" s="3">
-        <f>AG32*(1+$Q$21)</f>
-        <v>34798.982479572696</v>
+        <f t="shared" si="87"/>
+        <v>30072.169810652576</v>
       </c>
       <c r="AI32" s="3">
-        <f>AH32*(1+$Q$21)</f>
-        <v>35146.972304368421</v>
+        <f t="shared" si="87"/>
+        <v>30372.891508759101</v>
       </c>
       <c r="AJ32" s="3">
-        <f>AI32*(1+$Q$21)</f>
-        <v>35498.442027412108</v>
+        <f t="shared" si="87"/>
+        <v>30676.620423846693</v>
       </c>
       <c r="AK32" s="3">
-        <f>AJ32*(1+$Q$21)</f>
-        <v>35853.42644768623</v>
+        <f t="shared" si="87"/>
+        <v>30983.386628085158</v>
       </c>
       <c r="AL32" s="3">
-        <f>AK32*(1+$Q$21)</f>
-        <v>36211.960712163091</v>
+        <f t="shared" si="87"/>
+        <v>31293.220494366011</v>
       </c>
       <c r="AM32" s="3">
-        <f>AL32*(1+$Q$21)</f>
-        <v>36574.080319284723</v>
+        <f t="shared" si="87"/>
+        <v>31606.15269930967</v>
       </c>
       <c r="AN32" s="3">
-        <f>AM32*(1+$Q$21)</f>
-        <v>36939.821122477573</v>
+        <f t="shared" si="87"/>
+        <v>31922.214226302767</v>
       </c>
       <c r="AO32" s="3">
-        <f>AN32*(1+$Q$21)</f>
-        <v>37309.219333702349</v>
+        <f t="shared" si="87"/>
+        <v>32241.436368565795</v>
       </c>
       <c r="AP32" s="3">
-        <f>AO32*(1+$Q$21)</f>
-        <v>37682.311527039376</v>
+        <f t="shared" si="87"/>
+        <v>32563.850732251452</v>
       </c>
       <c r="AQ32" s="3">
-        <f>AP32*(1+$Q$21)</f>
-        <v>38059.134642309771</v>
+        <f t="shared" si="87"/>
+        <v>32889.489239573966</v>
       </c>
       <c r="AR32" s="3">
-        <f>AQ32*(1+$Q$21)</f>
-        <v>38439.725988732869</v>
+        <f t="shared" si="87"/>
+        <v>33218.384131969709</v>
       </c>
       <c r="AS32" s="3">
-        <f>AR32*(1+$Q$21)</f>
-        <v>38824.123248620199</v>
+        <f t="shared" si="87"/>
+        <v>33550.567973289406</v>
       </c>
       <c r="AT32" s="3">
-        <f>AS32*(1+$Q$21)</f>
-        <v>39212.3644811064</v>
+        <f t="shared" si="87"/>
+        <v>33886.0736530223</v>
       </c>
       <c r="AU32" s="3">
-        <f>AT32*(1+$Q$21)</f>
-        <v>39604.488125917465</v>
+        <f t="shared" ref="AU32:BZ32" si="88">AT32*(1+$Q$21)</f>
+        <v>34224.934389552523</v>
       </c>
       <c r="AV32" s="3">
-        <f>AU32*(1+$Q$21)</f>
-        <v>40000.533007176644</v>
+        <f t="shared" si="88"/>
+        <v>34567.183733448051</v>
       </c>
       <c r="AW32" s="3">
-        <f>AV32*(1+$Q$21)</f>
-        <v>40400.538337248414</v>
+        <f t="shared" si="88"/>
+        <v>34912.855570782529</v>
       </c>
       <c r="AX32" s="3">
-        <f>AW32*(1+$Q$21)</f>
-        <v>40804.543720620895</v>
+        <f t="shared" si="88"/>
+        <v>35261.984126490352</v>
       </c>
       <c r="AY32" s="3">
-        <f>AX32*(1+$Q$21)</f>
-        <v>41212.589157827104</v>
+        <f t="shared" si="88"/>
+        <v>35614.603967755254</v>
       </c>
       <c r="AZ32" s="3">
-        <f>AY32*(1+$Q$21)</f>
-        <v>41624.715049405379</v>
+        <f t="shared" si="88"/>
+        <v>35970.750007432805</v>
       </c>
       <c r="BA32" s="3">
-        <f>AZ32*(1+$Q$21)</f>
-        <v>42040.962199899433</v>
+        <f t="shared" si="88"/>
+        <v>36330.457507507133</v>
       </c>
       <c r="BB32" s="3">
-        <f>BA32*(1+$Q$21)</f>
-        <v>42461.371821898429</v>
+        <f t="shared" si="88"/>
+        <v>36693.762082582209</v>
       </c>
       <c r="BC32" s="3">
-        <f>BB32*(1+$Q$21)</f>
-        <v>42885.985540117414</v>
+        <f t="shared" si="88"/>
+        <v>37060.699703408034</v>
       </c>
       <c r="BD32" s="3">
-        <f>BC32*(1+$Q$21)</f>
-        <v>43314.845395518591</v>
+        <f t="shared" si="88"/>
+        <v>37431.306700442117</v>
       </c>
       <c r="BE32" s="3">
-        <f>BD32*(1+$Q$21)</f>
-        <v>43747.99384947378</v>
+        <f t="shared" si="88"/>
+        <v>37805.619767446537</v>
       </c>
       <c r="BF32" s="3">
-        <f>BE32*(1+$Q$21)</f>
-        <v>44185.47378796852</v>
+        <f t="shared" si="88"/>
+        <v>38183.675965121001</v>
       </c>
       <c r="BG32" s="3">
-        <f>BF32*(1+$Q$21)</f>
-        <v>44627.328525848206</v>
+        <f t="shared" si="88"/>
+        <v>38565.512724772212</v>
       </c>
       <c r="BH32" s="3">
-        <f>BG32*(1+$Q$21)</f>
-        <v>45073.601811106688</v>
+        <f t="shared" si="88"/>
+        <v>38951.167852019935</v>
       </c>
       <c r="BI32" s="3">
-        <f>BH32*(1+$Q$21)</f>
-        <v>45524.337829217759</v>
+        <f t="shared" si="88"/>
+        <v>39340.679530540132</v>
       </c>
       <c r="BJ32" s="3">
-        <f>BI32*(1+$Q$21)</f>
-        <v>45979.581207509938</v>
+        <f t="shared" si="88"/>
+        <v>39734.086325845536</v>
       </c>
       <c r="BK32" s="3">
-        <f>BJ32*(1+$Q$21)</f>
-        <v>46439.377019585037</v>
+        <f t="shared" si="88"/>
+        <v>40131.42718910399</v>
       </c>
       <c r="BL32" s="3">
-        <f>BK32*(1+$Q$21)</f>
-        <v>46903.770789780887</v>
+        <f t="shared" si="88"/>
+        <v>40532.741460995028</v>
       </c>
       <c r="BM32" s="3">
-        <f>BL32*(1+$Q$21)</f>
-        <v>47372.808497678699</v>
+        <f t="shared" si="88"/>
+        <v>40938.068875604979</v>
       </c>
       <c r="BN32" s="3">
-        <f>BM32*(1+$Q$21)</f>
-        <v>47846.536582655484</v>
+        <f t="shared" si="88"/>
+        <v>41347.449564361028</v>
       </c>
       <c r="BO32" s="3">
-        <f>BN32*(1+$Q$21)</f>
-        <v>48325.001948482037</v>
+        <f t="shared" si="88"/>
+        <v>41760.92406000464</v>
       </c>
       <c r="BP32" s="3">
-        <f>BO32*(1+$Q$21)</f>
-        <v>48808.251967966855</v>
+        <f t="shared" si="88"/>
+        <v>42178.533300604686</v>
       </c>
       <c r="BQ32" s="3">
-        <f>BP32*(1+$Q$21)</f>
-        <v>49296.334487646527</v>
+        <f t="shared" si="88"/>
+        <v>42600.318633610732</v>
       </c>
       <c r="BR32" s="3">
-        <f>BQ32*(1+$Q$21)</f>
-        <v>49789.297832522992</v>
+        <f t="shared" si="88"/>
+        <v>43026.321819946839</v>
       </c>
       <c r="BS32" s="3">
-        <f>BR32*(1+$Q$21)</f>
-        <v>50287.190810848224</v>
+        <f t="shared" si="88"/>
+        <v>43456.58503814631</v>
       </c>
       <c r="BT32" s="3">
-        <f>BS32*(1+$Q$21)</f>
-        <v>50790.062718956709</v>
+        <f t="shared" si="88"/>
+        <v>43891.150888527773</v>
       </c>
       <c r="BU32" s="3">
-        <f>BT32*(1+$Q$21)</f>
-        <v>51297.96334614628</v>
+        <f t="shared" si="88"/>
+        <v>44330.06239741305</v>
       </c>
       <c r="BV32" s="3">
-        <f>BU32*(1+$Q$21)</f>
-        <v>51810.942979607746</v>
+        <f t="shared" si="88"/>
+        <v>44773.36302138718</v>
       </c>
       <c r="BW32" s="3">
-        <f>BV32*(1+$Q$21)</f>
-        <v>52329.052409403826</v>
+        <f t="shared" si="88"/>
+        <v>45221.096651601052</v>
       </c>
       <c r="BX32" s="3">
-        <f>BW32*(1+$Q$21)</f>
-        <v>52852.342933497865</v>
+        <f t="shared" si="88"/>
+        <v>45673.307618117062</v>
       </c>
       <c r="BY32" s="3">
-        <f>BX32*(1+$Q$21)</f>
-        <v>53380.866362832843</v>
+        <f t="shared" si="88"/>
+        <v>46130.04069429823</v>
       </c>
       <c r="BZ32" s="3">
-        <f>BY32*(1+$Q$21)</f>
-        <v>53914.675026461169</v>
+        <f t="shared" si="88"/>
+        <v>46591.341101241211</v>
       </c>
       <c r="CA32" s="3">
-        <f>BZ32*(1+$Q$21)</f>
-        <v>54453.821776725781</v>
+        <f t="shared" ref="CA32:CV32" si="89">BZ32*(1+$Q$21)</f>
+        <v>47057.254512253625</v>
       </c>
       <c r="CB32" s="3">
-        <f>CA32*(1+$Q$21)</f>
-        <v>54998.359994493039</v>
+        <f t="shared" si="89"/>
+        <v>47527.827057376162</v>
       </c>
       <c r="CC32" s="3">
-        <f>CB32*(1+$Q$21)</f>
-        <v>55548.343594437967</v>
+        <f t="shared" si="89"/>
+        <v>48003.105327949925</v>
       </c>
       <c r="CD32" s="3">
-        <f>CC32*(1+$Q$21)</f>
-        <v>56103.827030382345</v>
+        <f t="shared" si="89"/>
+        <v>48483.136381229422</v>
       </c>
       <c r="CE32" s="3">
-        <f>CD32*(1+$Q$21)</f>
-        <v>56664.865300686171</v>
+        <f t="shared" si="89"/>
+        <v>48967.967745041715</v>
       </c>
       <c r="CF32" s="3">
-        <f>CE32*(1+$Q$21)</f>
-        <v>57231.513953693036</v>
+        <f t="shared" si="89"/>
+        <v>49457.647422492133</v>
       </c>
       <c r="CG32" s="3">
-        <f>CF32*(1+$Q$21)</f>
-        <v>57803.829093229964</v>
+        <f t="shared" si="89"/>
+        <v>49952.223896717056</v>
       </c>
       <c r="CH32" s="3">
-        <f>CG32*(1+$Q$21)</f>
-        <v>58381.867384162266</v>
+        <f t="shared" si="89"/>
+        <v>50451.746135684225</v>
       </c>
       <c r="CI32" s="3">
-        <f>CH32*(1+$Q$21)</f>
-        <v>58965.686058003892</v>
+        <f t="shared" si="89"/>
+        <v>50956.26359704107</v>
       </c>
       <c r="CJ32" s="3">
-        <f>CI32*(1+$Q$21)</f>
-        <v>59555.342918583934</v>
+        <f t="shared" si="89"/>
+        <v>51465.826233011481</v>
       </c>
       <c r="CK32" s="3">
-        <f>CJ32*(1+$Q$21)</f>
-        <v>60150.896347769776</v>
+        <f t="shared" si="89"/>
+        <v>51980.484495341596</v>
       </c>
       <c r="CL32" s="3">
-        <f>CK32*(1+$Q$21)</f>
-        <v>60752.405311247472</v>
+        <f t="shared" si="89"/>
+        <v>52500.289340295014</v>
       </c>
       <c r="CM32" s="3">
-        <f>CL32*(1+$Q$21)</f>
-        <v>61359.929364359945</v>
+        <f t="shared" si="89"/>
+        <v>53025.292233697968</v>
       </c>
       <c r="CN32" s="3">
-        <f>CM32*(1+$Q$21)</f>
-        <v>61973.528658003546</v>
+        <f t="shared" si="89"/>
+        <v>53555.545156034947</v>
       </c>
       <c r="CO32" s="3">
-        <f>CN32*(1+$Q$21)</f>
-        <v>62593.263944583581</v>
+        <f t="shared" si="89"/>
+        <v>54091.100607595297</v>
       </c>
       <c r="CP32" s="3">
-        <f>CO32*(1+$Q$21)</f>
-        <v>63219.196584029414</v>
+        <f t="shared" si="89"/>
+        <v>54632.011613671253</v>
       </c>
       <c r="CQ32" s="3">
-        <f>CP32*(1+$Q$21)</f>
-        <v>63851.388549869705</v>
+        <f t="shared" si="89"/>
+        <v>55178.331729807964</v>
       </c>
       <c r="CR32" s="3">
-        <f>CQ32*(1+$Q$21)</f>
-        <v>64489.9024353684</v>
+        <f t="shared" si="89"/>
+        <v>55730.115047106046</v>
       </c>
       <c r="CS32" s="3">
-        <f>CR32*(1+$Q$21)</f>
-        <v>65134.801459722083</v>
+        <f t="shared" si="89"/>
+        <v>56287.416197577106</v>
       </c>
       <c r="CT32" s="3">
-        <f>CS32*(1+$Q$21)</f>
-        <v>65786.149474319303</v>
+        <f t="shared" si="89"/>
+        <v>56850.290359552877</v>
       </c>
       <c r="CU32" s="3">
-        <f>CT32*(1+$Q$21)</f>
-        <v>66444.010969062496</v>
+        <f t="shared" si="89"/>
+        <v>57418.793263148407</v>
       </c>
       <c r="CV32" s="3">
-        <f>CU32*(1+$Q$21)</f>
-        <v>67108.451078753118</v>
+        <f t="shared" si="89"/>
+        <v>57992.981195779888</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2639,52 +2637,52 @@
         <v>1.4832860296436456</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" ref="C33:N33" si="83">C32/C17</f>
+        <f t="shared" ref="C33:N33" si="90">C32/C17</f>
         <v>1.1246943765281174</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>1.7562456222274108</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="83"/>
-        <v>1.312727933750087</v>
+        <f t="shared" si="90"/>
+        <v>1.2937028912319697</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="83"/>
-        <v>1.3053063907795264</v>
+        <f t="shared" si="90"/>
+        <v>1.2677455893645309</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="83"/>
-        <v>1.2995032203217585</v>
+        <f t="shared" si="90"/>
+        <v>1.2438179671552725</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="83"/>
-        <v>1.2951922575259025</v>
+        <f t="shared" si="90"/>
+        <v>1.2217251873517665</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="83"/>
-        <v>1.2922642169184717</v>
+        <f t="shared" si="90"/>
+        <v>1.2012970998978361</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="83"/>
-        <v>1.2906241329869763</v>
+        <f t="shared" si="90"/>
+        <v>1.182384460588269</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="83"/>
-        <v>1.2901892580464209</v>
+        <f t="shared" si="90"/>
+        <v>1.1648558242239395</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="83"/>
-        <v>1.2908873249956483</v>
+        <f t="shared" si="90"/>
+        <v>1.148594975954822</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" si="83"/>
-        <v>1.2926551033118054</v>
+        <f t="shared" si="90"/>
+        <v>1.1334987950983253</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="83"/>
-        <v>1.2954371922774142</v>
+        <f t="shared" si="90"/>
+        <v>1.1194754688034132</v>
       </c>
       <c r="O33" s="5"/>
     </row>
@@ -2701,39 +2699,39 @@
         <v>-20269.955029999994</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" ref="F34:I34" si="84">E34+F17</f>
+        <f t="shared" ref="F34:I34" si="91">E34+F17</f>
         <v>-7171.9241670699976</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>6853.5866727872726</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>21855.248911870167</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>37884.00714904262</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" ref="J34:N34" si="85">I34+J17</f>
+        <f t="shared" ref="J34:N34" si="92">I34+J17</f>
         <v>54993.179063353076</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="92"/>
         <v>73238.55955138657</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="92"/>
         <v>92678.529273590262</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="92"/>
         <v>113374.16779195088</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="92"/>
         <v>135389.3714888283</v>
       </c>
     </row>

--- a/CVX.xlsx
+++ b/CVX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98DFE94-2DAE-4894-B2C6-8D66CEB78AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01305BFE-59ED-4985-BD34-8BE1528006B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="1050" windowWidth="20745" windowHeight="13455" activeTab="1" xr2:uid="{DE22802E-4E39-41A4-8F8C-B16A5E41F415}"/>
+    <workbookView xWindow="4785" yWindow="810" windowWidth="21120" windowHeight="14670" activeTab="1" xr2:uid="{DE22802E-4E39-41A4-8F8C-B16A5E41F415}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -601,7 +601,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>132.5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
       </c>
       <c r="D4" s="2">
         <f>D2*D3</f>
-        <v>233279.5</v>
+        <v>242962.8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
       </c>
       <c r="D7" s="2">
         <f>D4+D6-D5</f>
-        <v>265766.5</v>
+        <v>275449.8</v>
       </c>
     </row>
   </sheetData>
@@ -673,10 +673,10 @@
   <dimension ref="A1:CV38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="Q23" s="3">
         <f>NPV(Q22,E32:XFD32)+Sheet1!D5-Sheet1!D6</f>
-        <v>285331.3573504446</v>
+        <v>324891.78519050748</v>
       </c>
     </row>
     <row r="24" spans="1:100" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="Q24" s="2">
         <f>Q23/Sheet1!D3</f>
-        <v>162.06484002637998</v>
+        <v>184.5346956665384</v>
       </c>
     </row>
     <row r="25" spans="1:100" x14ac:dyDescent="0.25">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="Q25" s="5">
         <f>Q24/Sheet1!D2-1</f>
-        <v>0.22313086812362259</v>
+        <v>0.3372079396125971</v>
       </c>
     </row>
     <row r="26" spans="1:100" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2144,6 +2144,7 @@
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -2162,44 +2163,34 @@
         <v>7.5975960810060097E-2</v>
       </c>
       <c r="E28" s="5">
-        <f>D28*1.02</f>
-        <v>7.7495480026261304E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" ref="F28:N28" si="83">E28*1.02</f>
-        <v>7.9045389626786533E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="83"/>
-        <v>8.0626297419322271E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="83"/>
-        <v>8.2238823367708713E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="83"/>
-        <v>8.3883599835062883E-2</v>
+        <v>0.1</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="83"/>
-        <v>8.5561271831764138E-2</v>
+        <v>0.1</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="83"/>
-        <v>8.7272497268399418E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="83"/>
-        <v>8.9017947213767407E-2</v>
+        <v>0.1</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="83"/>
-        <v>9.0798306158042755E-2</v>
+        <v>0.1</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="83"/>
-        <v>9.2614272281203613E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:100" x14ac:dyDescent="0.25">
@@ -2239,396 +2230,396 @@
         <v>37628</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" ref="C32:D32" si="84">C30-C31</f>
+        <f t="shared" ref="C32:N32" si="83">C30-C31</f>
         <v>19780</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>15044</v>
       </c>
       <c r="E32" s="3">
         <f>E28*E4</f>
-        <v>15805.226400000001</v>
+        <v>20395.030000000002</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" ref="F32:I32" si="85">F28*F4</f>
-        <v>16604.970855840002</v>
+        <f t="shared" ref="F32:I32" si="84">F28*F4</f>
+        <v>21006.880900000004</v>
       </c>
       <c r="G32" s="3">
+        <f t="shared" si="84"/>
+        <v>21637.087327000001</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="84"/>
+        <v>22286.199946810004</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="84"/>
+        <v>22954.785945214302</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" ref="J32:N32" si="85">J28*J4</f>
+        <v>23643.429523570732</v>
+      </c>
+      <c r="K32" s="3">
         <f t="shared" si="85"/>
-        <v>17445.182381145507</v>
-      </c>
-      <c r="H32" s="3">
+        <v>24352.732409277858</v>
+      </c>
+      <c r="L32" s="3">
         <f t="shared" si="85"/>
-        <v>18327.908609631471</v>
-      </c>
-      <c r="I32" s="3">
+        <v>25083.314381556193</v>
+      </c>
+      <c r="M32" s="3">
         <f t="shared" si="85"/>
-        <v>19255.300785278821</v>
-      </c>
-      <c r="J32" s="3">
-        <f t="shared" ref="J32:N32" si="86">J28*J4</f>
-        <v>20229.61900501393</v>
-      </c>
-      <c r="K32" s="3">
-        <f t="shared" si="86"/>
-        <v>21253.237726667638</v>
-      </c>
-      <c r="L32" s="3">
-        <f t="shared" si="86"/>
-        <v>22328.651555637018</v>
-      </c>
-      <c r="M32" s="3">
-        <f t="shared" si="86"/>
-        <v>23458.481324352251</v>
+        <v>25835.813813002878</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="86"/>
-        <v>24645.480479364473</v>
+        <f t="shared" si="85"/>
+        <v>26610.888227392963</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" ref="O32:AT32" si="87">N32*(1+$Q$21)</f>
-        <v>24891.935284158117</v>
+        <f t="shared" ref="O32:AT32" si="86">N32*(1+$Q$21)</f>
+        <v>26876.997109666892</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" si="87"/>
-        <v>25140.854636999698</v>
+        <f t="shared" si="86"/>
+        <v>27145.767080763562</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="87"/>
-        <v>25392.263183369694</v>
+        <f t="shared" si="86"/>
+        <v>27417.224751571197</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" si="87"/>
-        <v>25646.185815203393</v>
+        <f t="shared" si="86"/>
+        <v>27691.396999086908</v>
       </c>
       <c r="S32" s="3">
-        <f t="shared" si="87"/>
-        <v>25902.647673355426</v>
+        <f t="shared" si="86"/>
+        <v>27968.310969077778</v>
       </c>
       <c r="T32" s="3">
-        <f t="shared" si="87"/>
-        <v>26161.67415008898</v>
+        <f t="shared" si="86"/>
+        <v>28247.994078768555</v>
       </c>
       <c r="U32" s="3">
-        <f t="shared" si="87"/>
-        <v>26423.29089158987</v>
+        <f t="shared" si="86"/>
+        <v>28530.474019556241</v>
       </c>
       <c r="V32" s="3">
-        <f t="shared" si="87"/>
-        <v>26687.523800505769</v>
+        <f t="shared" si="86"/>
+        <v>28815.778759751804</v>
       </c>
       <c r="W32" s="3">
-        <f t="shared" si="87"/>
-        <v>26954.399038510826</v>
+        <f t="shared" si="86"/>
+        <v>29103.936547349324</v>
       </c>
       <c r="X32" s="3">
-        <f t="shared" si="87"/>
-        <v>27223.943028895934</v>
+        <f t="shared" si="86"/>
+        <v>29394.975912822818</v>
       </c>
       <c r="Y32" s="3">
-        <f t="shared" si="87"/>
-        <v>27496.182459184893</v>
+        <f t="shared" si="86"/>
+        <v>29688.925671951045</v>
       </c>
       <c r="Z32" s="3">
-        <f t="shared" si="87"/>
-        <v>27771.144283776743</v>
+        <f t="shared" si="86"/>
+        <v>29985.814928670556</v>
       </c>
       <c r="AA32" s="3">
-        <f t="shared" si="87"/>
-        <v>28048.855726614511</v>
+        <f t="shared" si="86"/>
+        <v>30285.673077957261</v>
       </c>
       <c r="AB32" s="3">
-        <f t="shared" si="87"/>
-        <v>28329.344283880655</v>
+        <f t="shared" si="86"/>
+        <v>30588.529808736832</v>
       </c>
       <c r="AC32" s="3">
-        <f t="shared" si="87"/>
-        <v>28612.637726719462</v>
+        <f t="shared" si="86"/>
+        <v>30894.415106824199</v>
       </c>
       <c r="AD32" s="3">
-        <f t="shared" si="87"/>
-        <v>28898.764103986658</v>
+        <f t="shared" si="86"/>
+        <v>31203.35925789244</v>
       </c>
       <c r="AE32" s="3">
-        <f t="shared" si="87"/>
-        <v>29187.751745026526</v>
+        <f t="shared" si="86"/>
+        <v>31515.392850471366</v>
       </c>
       <c r="AF32" s="3">
-        <f t="shared" si="87"/>
-        <v>29479.629262476792</v>
+        <f t="shared" si="86"/>
+        <v>31830.546778976081</v>
       </c>
       <c r="AG32" s="3">
-        <f t="shared" si="87"/>
-        <v>29774.425555101559</v>
+        <f t="shared" si="86"/>
+        <v>32148.85224676584</v>
       </c>
       <c r="AH32" s="3">
-        <f t="shared" si="87"/>
-        <v>30072.169810652576</v>
+        <f t="shared" si="86"/>
+        <v>32470.340769233499</v>
       </c>
       <c r="AI32" s="3">
-        <f t="shared" si="87"/>
-        <v>30372.891508759101</v>
+        <f t="shared" si="86"/>
+        <v>32795.044176925832</v>
       </c>
       <c r="AJ32" s="3">
-        <f t="shared" si="87"/>
-        <v>30676.620423846693</v>
+        <f t="shared" si="86"/>
+        <v>33122.994618695091</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" si="87"/>
-        <v>30983.386628085158</v>
+        <f t="shared" si="86"/>
+        <v>33454.224564882039</v>
       </c>
       <c r="AL32" s="3">
-        <f t="shared" si="87"/>
-        <v>31293.220494366011</v>
+        <f t="shared" si="86"/>
+        <v>33788.766810530862</v>
       </c>
       <c r="AM32" s="3">
-        <f t="shared" si="87"/>
-        <v>31606.15269930967</v>
+        <f t="shared" si="86"/>
+        <v>34126.65447863617</v>
       </c>
       <c r="AN32" s="3">
-        <f t="shared" si="87"/>
-        <v>31922.214226302767</v>
+        <f t="shared" si="86"/>
+        <v>34467.921023422532</v>
       </c>
       <c r="AO32" s="3">
-        <f t="shared" si="87"/>
-        <v>32241.436368565795</v>
+        <f t="shared" si="86"/>
+        <v>34812.600233656754</v>
       </c>
       <c r="AP32" s="3">
-        <f t="shared" si="87"/>
-        <v>32563.850732251452</v>
+        <f t="shared" si="86"/>
+        <v>35160.726235993323</v>
       </c>
       <c r="AQ32" s="3">
-        <f t="shared" si="87"/>
-        <v>32889.489239573966</v>
+        <f t="shared" si="86"/>
+        <v>35512.333498353255</v>
       </c>
       <c r="AR32" s="3">
-        <f t="shared" si="87"/>
-        <v>33218.384131969709</v>
+        <f t="shared" si="86"/>
+        <v>35867.456833336786</v>
       </c>
       <c r="AS32" s="3">
-        <f t="shared" si="87"/>
-        <v>33550.567973289406</v>
+        <f t="shared" si="86"/>
+        <v>36226.131401670151</v>
       </c>
       <c r="AT32" s="3">
-        <f t="shared" si="87"/>
-        <v>33886.0736530223</v>
+        <f t="shared" si="86"/>
+        <v>36588.392715686852</v>
       </c>
       <c r="AU32" s="3">
-        <f t="shared" ref="AU32:BZ32" si="88">AT32*(1+$Q$21)</f>
-        <v>34224.934389552523</v>
+        <f t="shared" ref="AU32:BZ32" si="87">AT32*(1+$Q$21)</f>
+        <v>36954.276642843724</v>
       </c>
       <c r="AV32" s="3">
+        <f t="shared" si="87"/>
+        <v>37323.819409272161</v>
+      </c>
+      <c r="AW32" s="3">
+        <f t="shared" si="87"/>
+        <v>37697.057603364883</v>
+      </c>
+      <c r="AX32" s="3">
+        <f t="shared" si="87"/>
+        <v>38074.028179398534</v>
+      </c>
+      <c r="AY32" s="3">
+        <f t="shared" si="87"/>
+        <v>38454.768461192521</v>
+      </c>
+      <c r="AZ32" s="3">
+        <f t="shared" si="87"/>
+        <v>38839.316145804449</v>
+      </c>
+      <c r="BA32" s="3">
+        <f t="shared" si="87"/>
+        <v>39227.709307262492</v>
+      </c>
+      <c r="BB32" s="3">
+        <f t="shared" si="87"/>
+        <v>39619.986400335118</v>
+      </c>
+      <c r="BC32" s="3">
+        <f t="shared" si="87"/>
+        <v>40016.186264338467</v>
+      </c>
+      <c r="BD32" s="3">
+        <f t="shared" si="87"/>
+        <v>40416.348126981851</v>
+      </c>
+      <c r="BE32" s="3">
+        <f t="shared" si="87"/>
+        <v>40820.511608251669</v>
+      </c>
+      <c r="BF32" s="3">
+        <f t="shared" si="87"/>
+        <v>41228.716724334183</v>
+      </c>
+      <c r="BG32" s="3">
+        <f t="shared" si="87"/>
+        <v>41641.003891577522</v>
+      </c>
+      <c r="BH32" s="3">
+        <f t="shared" si="87"/>
+        <v>42057.413930493298</v>
+      </c>
+      <c r="BI32" s="3">
+        <f t="shared" si="87"/>
+        <v>42477.98806979823</v>
+      </c>
+      <c r="BJ32" s="3">
+        <f t="shared" si="87"/>
+        <v>42902.767950496214</v>
+      </c>
+      <c r="BK32" s="3">
+        <f t="shared" si="87"/>
+        <v>43331.795630001179</v>
+      </c>
+      <c r="BL32" s="3">
+        <f t="shared" si="87"/>
+        <v>43765.113586301195</v>
+      </c>
+      <c r="BM32" s="3">
+        <f t="shared" si="87"/>
+        <v>44202.764722164211</v>
+      </c>
+      <c r="BN32" s="3">
+        <f t="shared" si="87"/>
+        <v>44644.792369385854</v>
+      </c>
+      <c r="BO32" s="3">
+        <f t="shared" si="87"/>
+        <v>45091.240293079711</v>
+      </c>
+      <c r="BP32" s="3">
+        <f t="shared" si="87"/>
+        <v>45542.152696010511</v>
+      </c>
+      <c r="BQ32" s="3">
+        <f t="shared" si="87"/>
+        <v>45997.574222970616</v>
+      </c>
+      <c r="BR32" s="3">
+        <f t="shared" si="87"/>
+        <v>46457.54996520032</v>
+      </c>
+      <c r="BS32" s="3">
+        <f t="shared" si="87"/>
+        <v>46922.125464852325</v>
+      </c>
+      <c r="BT32" s="3">
+        <f t="shared" si="87"/>
+        <v>47391.346719500849</v>
+      </c>
+      <c r="BU32" s="3">
+        <f t="shared" si="87"/>
+        <v>47865.260186695858</v>
+      </c>
+      <c r="BV32" s="3">
+        <f t="shared" si="87"/>
+        <v>48343.912788562819</v>
+      </c>
+      <c r="BW32" s="3">
+        <f t="shared" si="87"/>
+        <v>48827.351916448446</v>
+      </c>
+      <c r="BX32" s="3">
+        <f t="shared" si="87"/>
+        <v>49315.625435612928</v>
+      </c>
+      <c r="BY32" s="3">
+        <f t="shared" si="87"/>
+        <v>49808.781689969059</v>
+      </c>
+      <c r="BZ32" s="3">
+        <f t="shared" si="87"/>
+        <v>50306.869506868752</v>
+      </c>
+      <c r="CA32" s="3">
+        <f t="shared" ref="CA32:CV32" si="88">BZ32*(1+$Q$21)</f>
+        <v>50809.938201937439</v>
+      </c>
+      <c r="CB32" s="3">
         <f t="shared" si="88"/>
-        <v>34567.183733448051</v>
-      </c>
-      <c r="AW32" s="3">
+        <v>51318.037583956815</v>
+      </c>
+      <c r="CC32" s="3">
         <f t="shared" si="88"/>
-        <v>34912.855570782529</v>
-      </c>
-      <c r="AX32" s="3">
+        <v>51831.217959796384</v>
+      </c>
+      <c r="CD32" s="3">
         <f t="shared" si="88"/>
-        <v>35261.984126490352</v>
-      </c>
-      <c r="AY32" s="3">
+        <v>52349.530139394352</v>
+      </c>
+      <c r="CE32" s="3">
         <f t="shared" si="88"/>
-        <v>35614.603967755254</v>
-      </c>
-      <c r="AZ32" s="3">
+        <v>52873.025440788297</v>
+      </c>
+      <c r="CF32" s="3">
         <f t="shared" si="88"/>
-        <v>35970.750007432805</v>
-      </c>
-      <c r="BA32" s="3">
+        <v>53401.755695196181</v>
+      </c>
+      <c r="CG32" s="3">
         <f t="shared" si="88"/>
-        <v>36330.457507507133</v>
-      </c>
-      <c r="BB32" s="3">
+        <v>53935.773252148145</v>
+      </c>
+      <c r="CH32" s="3">
         <f t="shared" si="88"/>
-        <v>36693.762082582209</v>
-      </c>
-      <c r="BC32" s="3">
+        <v>54475.130984669624</v>
+      </c>
+      <c r="CI32" s="3">
         <f t="shared" si="88"/>
-        <v>37060.699703408034</v>
-      </c>
-      <c r="BD32" s="3">
+        <v>55019.882294516319</v>
+      </c>
+      <c r="CJ32" s="3">
         <f t="shared" si="88"/>
-        <v>37431.306700442117</v>
-      </c>
-      <c r="BE32" s="3">
+        <v>55570.081117461486</v>
+      </c>
+      <c r="CK32" s="3">
         <f t="shared" si="88"/>
-        <v>37805.619767446537</v>
-      </c>
-      <c r="BF32" s="3">
+        <v>56125.781928636105</v>
+      </c>
+      <c r="CL32" s="3">
         <f t="shared" si="88"/>
-        <v>38183.675965121001</v>
-      </c>
-      <c r="BG32" s="3">
+        <v>56687.039747922463</v>
+      </c>
+      <c r="CM32" s="3">
         <f t="shared" si="88"/>
-        <v>38565.512724772212</v>
-      </c>
-      <c r="BH32" s="3">
+        <v>57253.910145401685</v>
+      </c>
+      <c r="CN32" s="3">
         <f t="shared" si="88"/>
-        <v>38951.167852019935</v>
-      </c>
-      <c r="BI32" s="3">
+        <v>57826.4492468557</v>
+      </c>
+      <c r="CO32" s="3">
         <f t="shared" si="88"/>
-        <v>39340.679530540132</v>
-      </c>
-      <c r="BJ32" s="3">
+        <v>58404.713739324259</v>
+      </c>
+      <c r="CP32" s="3">
         <f t="shared" si="88"/>
-        <v>39734.086325845536</v>
-      </c>
-      <c r="BK32" s="3">
+        <v>58988.760876717504</v>
+      </c>
+      <c r="CQ32" s="3">
         <f t="shared" si="88"/>
-        <v>40131.42718910399</v>
-      </c>
-      <c r="BL32" s="3">
+        <v>59578.648485484679</v>
+      </c>
+      <c r="CR32" s="3">
         <f t="shared" si="88"/>
-        <v>40532.741460995028</v>
-      </c>
-      <c r="BM32" s="3">
+        <v>60174.434970339527</v>
+      </c>
+      <c r="CS32" s="3">
         <f t="shared" si="88"/>
-        <v>40938.068875604979</v>
-      </c>
-      <c r="BN32" s="3">
+        <v>60776.179320042924</v>
+      </c>
+      <c r="CT32" s="3">
         <f t="shared" si="88"/>
-        <v>41347.449564361028</v>
-      </c>
-      <c r="BO32" s="3">
+        <v>61383.941113243352</v>
+      </c>
+      <c r="CU32" s="3">
         <f t="shared" si="88"/>
-        <v>41760.92406000464</v>
-      </c>
-      <c r="BP32" s="3">
+        <v>61997.780524375783</v>
+      </c>
+      <c r="CV32" s="3">
         <f t="shared" si="88"/>
-        <v>42178.533300604686</v>
-      </c>
-      <c r="BQ32" s="3">
-        <f t="shared" si="88"/>
-        <v>42600.318633610732</v>
-      </c>
-      <c r="BR32" s="3">
-        <f t="shared" si="88"/>
-        <v>43026.321819946839</v>
-      </c>
-      <c r="BS32" s="3">
-        <f t="shared" si="88"/>
-        <v>43456.58503814631</v>
-      </c>
-      <c r="BT32" s="3">
-        <f t="shared" si="88"/>
-        <v>43891.150888527773</v>
-      </c>
-      <c r="BU32" s="3">
-        <f t="shared" si="88"/>
-        <v>44330.06239741305</v>
-      </c>
-      <c r="BV32" s="3">
-        <f t="shared" si="88"/>
-        <v>44773.36302138718</v>
-      </c>
-      <c r="BW32" s="3">
-        <f t="shared" si="88"/>
-        <v>45221.096651601052</v>
-      </c>
-      <c r="BX32" s="3">
-        <f t="shared" si="88"/>
-        <v>45673.307618117062</v>
-      </c>
-      <c r="BY32" s="3">
-        <f t="shared" si="88"/>
-        <v>46130.04069429823</v>
-      </c>
-      <c r="BZ32" s="3">
-        <f t="shared" si="88"/>
-        <v>46591.341101241211</v>
-      </c>
-      <c r="CA32" s="3">
-        <f t="shared" ref="CA32:CV32" si="89">BZ32*(1+$Q$21)</f>
-        <v>47057.254512253625</v>
-      </c>
-      <c r="CB32" s="3">
-        <f t="shared" si="89"/>
-        <v>47527.827057376162</v>
-      </c>
-      <c r="CC32" s="3">
-        <f t="shared" si="89"/>
-        <v>48003.105327949925</v>
-      </c>
-      <c r="CD32" s="3">
-        <f t="shared" si="89"/>
-        <v>48483.136381229422</v>
-      </c>
-      <c r="CE32" s="3">
-        <f t="shared" si="89"/>
-        <v>48967.967745041715</v>
-      </c>
-      <c r="CF32" s="3">
-        <f t="shared" si="89"/>
-        <v>49457.647422492133</v>
-      </c>
-      <c r="CG32" s="3">
-        <f t="shared" si="89"/>
-        <v>49952.223896717056</v>
-      </c>
-      <c r="CH32" s="3">
-        <f t="shared" si="89"/>
-        <v>50451.746135684225</v>
-      </c>
-      <c r="CI32" s="3">
-        <f t="shared" si="89"/>
-        <v>50956.26359704107</v>
-      </c>
-      <c r="CJ32" s="3">
-        <f t="shared" si="89"/>
-        <v>51465.826233011481</v>
-      </c>
-      <c r="CK32" s="3">
-        <f t="shared" si="89"/>
-        <v>51980.484495341596</v>
-      </c>
-      <c r="CL32" s="3">
-        <f t="shared" si="89"/>
-        <v>52500.289340295014</v>
-      </c>
-      <c r="CM32" s="3">
-        <f t="shared" si="89"/>
-        <v>53025.292233697968</v>
-      </c>
-      <c r="CN32" s="3">
-        <f t="shared" si="89"/>
-        <v>53555.545156034947</v>
-      </c>
-      <c r="CO32" s="3">
-        <f t="shared" si="89"/>
-        <v>54091.100607595297</v>
-      </c>
-      <c r="CP32" s="3">
-        <f t="shared" si="89"/>
-        <v>54632.011613671253</v>
-      </c>
-      <c r="CQ32" s="3">
-        <f t="shared" si="89"/>
-        <v>55178.331729807964</v>
-      </c>
-      <c r="CR32" s="3">
-        <f t="shared" si="89"/>
-        <v>55730.115047106046</v>
-      </c>
-      <c r="CS32" s="3">
-        <f t="shared" si="89"/>
-        <v>56287.416197577106</v>
-      </c>
-      <c r="CT32" s="3">
-        <f t="shared" si="89"/>
-        <v>56850.290359552877</v>
-      </c>
-      <c r="CU32" s="3">
-        <f t="shared" si="89"/>
-        <v>57418.793263148407</v>
-      </c>
-      <c r="CV32" s="3">
-        <f t="shared" si="89"/>
-        <v>57992.981195779888</v>
+        <v>62617.758329619544</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2637,52 +2628,52 @@
         <v>1.4832860296436456</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" ref="C33:N33" si="90">C32/C17</f>
+        <f t="shared" ref="C33:N33" si="89">C32/C17</f>
         <v>1.1246943765281174</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>1.7562456222274108</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="90"/>
-        <v>1.2937028912319697</v>
+        <f t="shared" si="89"/>
+        <v>1.6693914158523386</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="90"/>
-        <v>1.2677455893645309</v>
+        <f t="shared" si="89"/>
+        <v>1.6038197741199105</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="90"/>
-        <v>1.2438179671552725</v>
+        <f t="shared" si="89"/>
+        <v>1.5426951341773865</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="90"/>
-        <v>1.2217251873517665</v>
+        <f t="shared" si="89"/>
+        <v>1.485582036952489</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="90"/>
-        <v>1.2012970998978361</v>
+        <f t="shared" si="89"/>
+        <v>1.4321000794671435</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="90"/>
-        <v>1.182384460588269</v>
+        <f t="shared" si="89"/>
+        <v>1.3819154803041573</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="90"/>
-        <v>1.1648558242239395</v>
+        <f t="shared" si="89"/>
+        <v>1.3347341495700769</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="90"/>
-        <v>1.148594975954822</v>
+        <f t="shared" si="89"/>
+        <v>1.29029595930424</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" si="90"/>
-        <v>1.1334987950983253</v>
+        <f t="shared" si="89"/>
+        <v>1.24836997853833</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="90"/>
-        <v>1.1194754688034132</v>
+        <f t="shared" si="89"/>
+        <v>1.2087504886982898</v>
       </c>
       <c r="O33" s="5"/>
     </row>
@@ -2699,39 +2690,39 @@
         <v>-20269.955029999994</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" ref="F34:I34" si="91">E34+F17</f>
+        <f t="shared" ref="F34:I34" si="90">E34+F17</f>
         <v>-7171.9241670699976</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="90"/>
+        <v>6853.5866727872726</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="90"/>
+        <v>21855.248911870167</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="90"/>
+        <v>37884.00714904262</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" ref="J34:N34" si="91">I34+J17</f>
+        <v>54993.179063353076</v>
+      </c>
+      <c r="K34" s="2">
         <f t="shared" si="91"/>
-        <v>6853.5866727872726</v>
-      </c>
-      <c r="H34" s="2">
+        <v>73238.55955138657</v>
+      </c>
+      <c r="L34" s="2">
         <f t="shared" si="91"/>
-        <v>21855.248911870167</v>
-      </c>
-      <c r="I34" s="2">
+        <v>92678.529273590262</v>
+      </c>
+      <c r="M34" s="2">
         <f t="shared" si="91"/>
-        <v>37884.00714904262</v>
-      </c>
-      <c r="J34" s="2">
-        <f t="shared" ref="J34:N34" si="92">I34+J17</f>
-        <v>54993.179063353076</v>
-      </c>
-      <c r="K34" s="2">
-        <f t="shared" si="92"/>
-        <v>73238.55955138657</v>
-      </c>
-      <c r="L34" s="2">
-        <f t="shared" si="92"/>
-        <v>92678.529273590262</v>
-      </c>
-      <c r="M34" s="2">
-        <f t="shared" si="92"/>
         <v>113374.16779195088</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>135389.3714888283</v>
       </c>
     </row>
